--- a/Assets/StreamingAssets/source_table.xlsx
+++ b/Assets/StreamingAssets/source_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redizit\Documents\GitHub\UniversalParser\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A54B5B-6181-481C-85C5-4095461E642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="6660" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="мо" sheetId="2" r:id="rId1"/>
@@ -1020,7 +1021,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1145,18 +1146,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G111" totalsRowShown="0">
-  <autoFilter ref="A1:G111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:G111" totalsRowShown="0">
+  <autoFilter ref="A1:G111" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="код" dataDxfId="1"/>
-    <tableColumn id="2" name="название"/>
-    <tableColumn id="3" name="1 комнатн" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="код" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="название"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="1 комнатн" dataDxfId="0">
       <calculatedColumnFormula>"https://spb.cian.ru/cat.php?deal_type=sale&amp;district%5B0%5D="&amp;Таблица1[[#This Row],[код]]&amp;"&amp;engine_version=2&amp;object_type%5B0%5D=1&amp;offer_type=flat&amp;room1=1&amp;totime=864000"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="1_2"/>
-    <tableColumn id="5" name="1_3"/>
-    <tableColumn id="6" name="1_4"/>
-    <tableColumn id="7" name="1_5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="1_2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="1_3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="1_4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="1_5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2674,7 +2675,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2684,17 +2685,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="158.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
@@ -3765,9 +3766,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
